--- a/evaluation_statistics/sparse_joints/all.xlsx
+++ b/evaluation_statistics/sparse_joints/all.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\杨邦\PycharmProjects\AI\evaluation_statistics\sparse_joints\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\graduation_project\gp\evaluation_statistics\sparse_joints\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1153,8 +1153,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1162,7 +1162,7 @@
     <col min="1" max="1" width="13.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1193,8 +1193,16 @@
       <c r="J1">
         <v>0.30666666666666598</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L1">
+        <f>D1-C1</f>
+        <v>0.11549647900000004</v>
+      </c>
+      <c r="M1">
+        <f>SUM(L1:L51)/30</f>
+        <v>0.14656395283333332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1225,8 +1233,12 @@
       <c r="J2">
         <v>0.41304347826086901</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <f t="shared" ref="L2:L51" si="0">D2-C2</f>
+        <v>8.1364714000000005E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1257,8 +1269,12 @@
       <c r="J3">
         <v>0.57142857142857095</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <f t="shared" si="0"/>
+        <v>0.10891362700000007</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1289,8 +1305,11 @@
       <c r="J4" s="1">
         <v>6.0606060606060601E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1321,8 +1340,12 @@
       <c r="J5">
         <v>9.375E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <f t="shared" si="0"/>
+        <v>9.6582793999999916E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1353,8 +1376,12 @@
       <c r="J6">
         <v>0.65217391304347805</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>0.15133776500000007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -1385,8 +1412,11 @@
       <c r="J7" s="1">
         <v>0.164383561643835</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1417,8 +1447,12 @@
       <c r="J8">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.20696479699999992</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1449,8 +1483,12 @@
       <c r="J9">
         <v>0.105263157894736</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.15064936299999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1481,8 +1519,12 @@
       <c r="J10">
         <v>0.44262295081967201</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>0.17903807499999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1513,8 +1555,12 @@
       <c r="J11">
         <v>0.30555555555555503</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>5.3321686999999951E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1545,8 +1591,12 @@
       <c r="J12">
         <v>0.71428571428571397</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>7.669034600000002E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1577,8 +1627,12 @@
       <c r="J13">
         <v>0.48571428571428499</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>0.19333620800000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1609,8 +1663,12 @@
       <c r="J14">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>8.6585455000000033E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1641,8 +1699,12 @@
       <c r="J15">
         <v>0.55882352941176405</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0.13952191699999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1673,8 +1735,12 @@
       <c r="J16">
         <v>0.282608695652173</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>0.19310511900000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1705,8 +1771,12 @@
       <c r="J17">
         <v>0.54545454545454497</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0.20472811800000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -1737,8 +1807,11 @@
       <c r="J18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1769,8 +1842,12 @@
       <c r="J19">
         <v>0.30303030303030298</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>0.21588688199999995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1801,8 +1878,12 @@
       <c r="J20">
         <v>8.3333333333333301E-2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>0.2032931</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1833,8 +1914,12 @@
       <c r="J21">
         <v>0.140350877192982</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>0.11271337699999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1865,8 +1950,12 @@
       <c r="J22">
         <v>6.8965517241379296E-2</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>0.17187693100000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -1897,8 +1986,11 @@
       <c r="J23" s="1">
         <v>8.3333333333333301E-2</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -1929,8 +2021,11 @@
       <c r="J24" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1961,8 +2056,12 @@
       <c r="J25">
         <v>1.7543859649122799E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>0.22489931299999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -1993,8 +2092,11 @@
       <c r="J26" s="1">
         <v>0.104602510460251</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2025,8 +2127,12 @@
       <c r="J27">
         <v>0.119047619047619</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0.12410420699999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2057,8 +2163,12 @@
       <c r="J28">
         <v>0.21052631578947301</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>0.21361593299999992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2089,8 +2199,12 @@
       <c r="J29">
         <v>0.108695652173913</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>0.23906018000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2121,8 +2235,12 @@
       <c r="J30">
         <v>0.25581395348837199</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <f t="shared" si="0"/>
+        <v>0.19208225500000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2271,11 @@
       <c r="J31" s="1">
         <v>0.107142857142857</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
@@ -2185,8 +2306,11 @@
       <c r="J32" s="1">
         <v>0.15151515151515099</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>31</v>
       </c>
@@ -2217,8 +2341,11 @@
       <c r="J33" s="1">
         <v>0.32432432432432401</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2249,8 +2376,12 @@
       <c r="J34">
         <v>0.34482758620689602</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <f t="shared" si="0"/>
+        <v>9.1449225999999995E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
@@ -2281,8 +2412,11 @@
       <c r="J35" s="1">
         <v>2.3809523809523801E-2</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>67</v>
       </c>
@@ -2313,8 +2447,11 @@
       <c r="J36" s="1">
         <v>9.7222222222222196E-2</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -2345,8 +2482,11 @@
       <c r="J37" s="1">
         <v>0.12962962962962901</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -2377,8 +2517,11 @@
       <c r="J38" s="1">
         <v>0.20512820512820501</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -2409,8 +2552,11 @@
       <c r="J39" s="1">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>37</v>
       </c>
@@ -2441,8 +2587,12 @@
       <c r="J40">
         <v>0.24324324324324301</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <f t="shared" si="0"/>
+        <v>0.17206872899999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>38</v>
       </c>
@@ -2473,8 +2623,11 @@
       <c r="J41" s="1">
         <v>0.158823529411764</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>39</v>
       </c>
@@ -2505,8 +2658,11 @@
       <c r="J42" s="1">
         <v>0.135135135135135</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -2537,8 +2693,12 @@
       <c r="J43">
         <v>0.24</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <f t="shared" si="0"/>
+        <v>8.577274300000004E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>41</v>
       </c>
@@ -2569,8 +2729,11 @@
       <c r="J44">
         <v>0.20512820512820501</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>42</v>
       </c>
@@ -2601,8 +2764,11 @@
       <c r="J45" s="1">
         <v>0.13580246913580199</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>43</v>
       </c>
@@ -2633,8 +2799,12 @@
       <c r="J46">
         <v>0.28125</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <f t="shared" si="0"/>
+        <v>5.1601215000000034E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>44</v>
       </c>
@@ -2665,8 +2835,11 @@
       <c r="J47" s="1">
         <v>5.2631578947368397E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>45</v>
       </c>
@@ -2696,6 +2869,9 @@
       </c>
       <c r="J48" s="1">
         <v>9.5744680851063801E-2</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -2729,6 +2905,10 @@
       <c r="J49">
         <v>5.2631578947368397E-2</v>
       </c>
+      <c r="L49">
+        <f t="shared" si="0"/>
+        <v>0.15122797500000001</v>
+      </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -2761,6 +2941,9 @@
       <c r="J50" s="1">
         <v>0.439393939393939</v>
       </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -2793,6 +2976,10 @@
       <c r="J51">
         <v>0.40625</v>
       </c>
+      <c r="L51">
+        <f t="shared" si="0"/>
+        <v>0.109630055</v>
+      </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M52" t="s">
@@ -2803,6 +2990,16 @@
       </c>
     </row>
     <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
       <c r="M53" t="s">
         <v>51</v>
       </c>
